--- a/Algebra relacional.xlsx
+++ b/Algebra relacional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SXRDNX\Documents\TareasJaime\Manejador1\basededatospython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92E1CC-63FF-40CC-A29D-001015B4A27F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82A4DD0-F773-4F4A-8F47-5A8007CF6AA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
@@ -1675,7 +1675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1887,58 +1887,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -2009,7 +1957,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2035,7 +1983,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2053,27 +2000,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2088,19 +2028,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
@@ -2451,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2471,42 +2417,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="38" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="45">
+      <c r="B2" s="39">
         <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2536,12 +2482,12 @@
       <c r="K2" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="40">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2571,12 +2517,12 @@
       <c r="K3" s="5">
         <v>100</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="40">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2606,12 +2552,12 @@
       <c r="K4" s="5">
         <v>100</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="40">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="45">
+      <c r="B5" s="39">
         <v>103</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2641,12 +2587,12 @@
       <c r="K5" s="5">
         <v>102</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="45">
+      <c r="B6" s="39">
         <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2676,12 +2622,12 @@
       <c r="K6" s="5">
         <v>103</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="45">
+      <c r="B7" s="39">
         <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2711,12 +2657,12 @@
       <c r="K7" s="5">
         <v>103</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="45">
+      <c r="B8" s="39">
         <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2746,12 +2692,12 @@
       <c r="K8" s="5">
         <v>103</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="45">
+      <c r="B9" s="39">
         <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2781,12 +2727,12 @@
       <c r="K9" s="5">
         <v>103</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="45">
+      <c r="B10" s="39">
         <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2816,12 +2762,12 @@
       <c r="K10" s="5">
         <v>101</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="45">
+      <c r="B11" s="39">
         <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2851,12 +2797,12 @@
       <c r="K11" s="5">
         <v>108</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="45">
+      <c r="B12" s="39">
         <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2886,12 +2832,12 @@
       <c r="K12" s="5">
         <v>108</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="45">
+      <c r="B13" s="39">
         <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2921,12 +2867,12 @@
       <c r="K13" s="5">
         <v>108</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="45">
+      <c r="B14" s="39">
         <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2956,12 +2902,12 @@
       <c r="K14" s="5">
         <v>108</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="45">
+      <c r="B15" s="39">
         <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2991,12 +2937,12 @@
       <c r="K15" s="5">
         <v>108</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="45">
+      <c r="B16" s="39">
         <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -3026,12 +2972,12 @@
       <c r="K16" s="5">
         <v>100</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="40">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="45">
+      <c r="B17" s="39">
         <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3061,12 +3007,12 @@
       <c r="K17" s="5">
         <v>114</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="40">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="45">
+      <c r="B18" s="39">
         <v>116</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3096,12 +3042,12 @@
       <c r="K18" s="5">
         <v>114</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="40">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="45">
+      <c r="B19" s="39">
         <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3131,12 +3077,12 @@
       <c r="K19" s="5">
         <v>114</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="40">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="45">
+      <c r="B20" s="39">
         <v>118</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3166,12 +3112,12 @@
       <c r="K20" s="5">
         <v>114</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="40">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="45">
+      <c r="B21" s="39">
         <v>119</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3201,12 +3147,12 @@
       <c r="K21" s="5">
         <v>114</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="40">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="45">
+      <c r="B22" s="39">
         <v>120</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3236,12 +3182,12 @@
       <c r="K22" s="5">
         <v>100</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="45">
+      <c r="B23" s="39">
         <v>121</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3271,12 +3217,12 @@
       <c r="K23" s="5">
         <v>100</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="45">
+      <c r="B24" s="39">
         <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -3306,12 +3252,12 @@
       <c r="K24" s="5">
         <v>100</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="45">
+      <c r="B25" s="39">
         <v>123</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3341,12 +3287,12 @@
       <c r="K25" s="5">
         <v>100</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="45">
+      <c r="B26" s="39">
         <v>124</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -3376,12 +3322,12 @@
       <c r="K26" s="5">
         <v>100</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="45">
+      <c r="B27" s="39">
         <v>125</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3411,12 +3357,12 @@
       <c r="K27" s="5">
         <v>120</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="45">
+      <c r="B28" s="39">
         <v>126</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3446,12 +3392,12 @@
       <c r="K28" s="5">
         <v>120</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="45">
+      <c r="B29" s="39">
         <v>127</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3481,12 +3427,12 @@
       <c r="K29" s="5">
         <v>120</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="45">
+      <c r="B30" s="39">
         <v>128</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3516,12 +3462,12 @@
       <c r="K30" s="5">
         <v>120</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="45">
+      <c r="B31" s="39">
         <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3551,12 +3497,12 @@
       <c r="K31" s="5">
         <v>121</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="45">
+      <c r="B32" s="39">
         <v>130</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3586,12 +3532,12 @@
       <c r="K32" s="5">
         <v>121</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="45">
+      <c r="B33" s="39">
         <v>131</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3621,12 +3567,12 @@
       <c r="K33" s="5">
         <v>121</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="45">
+      <c r="B34" s="39">
         <v>132</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -3656,12 +3602,12 @@
       <c r="K34" s="5">
         <v>121</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="45">
+      <c r="B35" s="39">
         <v>133</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3691,12 +3637,12 @@
       <c r="K35" s="5">
         <v>122</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="45">
+      <c r="B36" s="39">
         <v>134</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3726,12 +3672,12 @@
       <c r="K36" s="5">
         <v>122</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="45">
+      <c r="B37" s="39">
         <v>135</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -3761,12 +3707,12 @@
       <c r="K37" s="5">
         <v>122</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="45">
+      <c r="B38" s="39">
         <v>136</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -3796,12 +3742,12 @@
       <c r="K38" s="5">
         <v>122</v>
       </c>
-      <c r="L38" s="46">
+      <c r="L38" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="45">
+      <c r="B39" s="39">
         <v>137</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -3831,12 +3777,12 @@
       <c r="K39" s="5">
         <v>123</v>
       </c>
-      <c r="L39" s="46">
+      <c r="L39" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="45">
+      <c r="B40" s="39">
         <v>138</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3866,12 +3812,12 @@
       <c r="K40" s="5">
         <v>123</v>
       </c>
-      <c r="L40" s="46">
+      <c r="L40" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="45">
+      <c r="B41" s="39">
         <v>139</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -3901,12 +3847,12 @@
       <c r="K41" s="5">
         <v>123</v>
       </c>
-      <c r="L41" s="46">
+      <c r="L41" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="45">
+      <c r="B42" s="39">
         <v>140</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -3936,12 +3882,12 @@
       <c r="K42" s="5">
         <v>123</v>
       </c>
-      <c r="L42" s="46">
+      <c r="L42" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="45">
+      <c r="B43" s="39">
         <v>141</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3971,12 +3917,12 @@
       <c r="K43" s="5">
         <v>124</v>
       </c>
-      <c r="L43" s="46">
+      <c r="L43" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="45">
+      <c r="B44" s="39">
         <v>142</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -4006,12 +3952,12 @@
       <c r="K44" s="5">
         <v>124</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="45">
+      <c r="B45" s="39">
         <v>143</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -4041,12 +3987,12 @@
       <c r="K45" s="5">
         <v>124</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="45">
+      <c r="B46" s="39">
         <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -4076,12 +4022,12 @@
       <c r="K46" s="5">
         <v>124</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="45">
+      <c r="B47" s="39">
         <v>145</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -4111,12 +4057,12 @@
       <c r="K47" s="5">
         <v>100</v>
       </c>
-      <c r="L47" s="46">
+      <c r="L47" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="45">
+      <c r="B48" s="39">
         <v>146</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -4146,12 +4092,12 @@
       <c r="K48" s="5">
         <v>100</v>
       </c>
-      <c r="L48" s="46">
+      <c r="L48" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="45">
+      <c r="B49" s="39">
         <v>147</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -4181,12 +4127,12 @@
       <c r="K49" s="5">
         <v>100</v>
       </c>
-      <c r="L49" s="46">
+      <c r="L49" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="45">
+      <c r="B50" s="39">
         <v>148</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -4216,12 +4162,12 @@
       <c r="K50" s="5">
         <v>100</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="45">
+      <c r="B51" s="39">
         <v>149</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -4251,12 +4197,12 @@
       <c r="K51" s="5">
         <v>100</v>
       </c>
-      <c r="L51" s="46">
+      <c r="L51" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="45">
+      <c r="B52" s="39">
         <v>150</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -4286,12 +4232,12 @@
       <c r="K52" s="5">
         <v>145</v>
       </c>
-      <c r="L52" s="46">
+      <c r="L52" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="45">
+      <c r="B53" s="39">
         <v>151</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -4321,12 +4267,12 @@
       <c r="K53" s="5">
         <v>145</v>
       </c>
-      <c r="L53" s="46">
+      <c r="L53" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="45">
+      <c r="B54" s="39">
         <v>152</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -4356,12 +4302,12 @@
       <c r="K54" s="5">
         <v>145</v>
       </c>
-      <c r="L54" s="46">
+      <c r="L54" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="45">
+      <c r="B55" s="39">
         <v>153</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -4391,12 +4337,12 @@
       <c r="K55" s="5">
         <v>145</v>
       </c>
-      <c r="L55" s="46">
+      <c r="L55" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="45">
+      <c r="B56" s="39">
         <v>154</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -4426,12 +4372,12 @@
       <c r="K56" s="5">
         <v>145</v>
       </c>
-      <c r="L56" s="46">
+      <c r="L56" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="45">
+      <c r="B57" s="39">
         <v>155</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -4461,12 +4407,12 @@
       <c r="K57" s="5">
         <v>145</v>
       </c>
-      <c r="L57" s="46">
+      <c r="L57" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="45">
+      <c r="B58" s="39">
         <v>156</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -4496,12 +4442,12 @@
       <c r="K58" s="5">
         <v>146</v>
       </c>
-      <c r="L58" s="46">
+      <c r="L58" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="45">
+      <c r="B59" s="39">
         <v>157</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -4531,12 +4477,12 @@
       <c r="K59" s="5">
         <v>146</v>
       </c>
-      <c r="L59" s="46">
+      <c r="L59" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="45">
+      <c r="B60" s="39">
         <v>158</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -4566,12 +4512,12 @@
       <c r="K60" s="5">
         <v>146</v>
       </c>
-      <c r="L60" s="46">
+      <c r="L60" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="45">
+      <c r="B61" s="39">
         <v>159</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -4601,12 +4547,12 @@
       <c r="K61" s="5">
         <v>146</v>
       </c>
-      <c r="L61" s="46">
+      <c r="L61" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="45">
+      <c r="B62" s="39">
         <v>160</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -4636,12 +4582,12 @@
       <c r="K62" s="5">
         <v>146</v>
       </c>
-      <c r="L62" s="46">
+      <c r="L62" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="45">
+      <c r="B63" s="39">
         <v>161</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -4671,12 +4617,12 @@
       <c r="K63" s="5">
         <v>146</v>
       </c>
-      <c r="L63" s="46">
+      <c r="L63" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="45">
+      <c r="B64" s="39">
         <v>162</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -4706,12 +4652,12 @@
       <c r="K64" s="5">
         <v>147</v>
       </c>
-      <c r="L64" s="46">
+      <c r="L64" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="45">
+      <c r="B65" s="39">
         <v>163</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -4741,12 +4687,12 @@
       <c r="K65" s="5">
         <v>147</v>
       </c>
-      <c r="L65" s="46">
+      <c r="L65" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="45">
+      <c r="B66" s="39">
         <v>164</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -4776,12 +4722,12 @@
       <c r="K66" s="5">
         <v>147</v>
       </c>
-      <c r="L66" s="46">
+      <c r="L66" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="45">
+      <c r="B67" s="39">
         <v>165</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -4811,12 +4757,12 @@
       <c r="K67" s="5">
         <v>147</v>
       </c>
-      <c r="L67" s="46">
+      <c r="L67" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="45">
+      <c r="B68" s="39">
         <v>166</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -4846,12 +4792,12 @@
       <c r="K68" s="5">
         <v>147</v>
       </c>
-      <c r="L68" s="46">
+      <c r="L68" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="45">
+      <c r="B69" s="39">
         <v>167</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -4881,12 +4827,12 @@
       <c r="K69" s="5">
         <v>147</v>
       </c>
-      <c r="L69" s="46">
+      <c r="L69" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="45">
+      <c r="B70" s="39">
         <v>168</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -4916,12 +4862,12 @@
       <c r="K70" s="5">
         <v>148</v>
       </c>
-      <c r="L70" s="46">
+      <c r="L70" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="45">
+      <c r="B71" s="39">
         <v>169</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -4951,12 +4897,12 @@
       <c r="K71" s="5">
         <v>148</v>
       </c>
-      <c r="L71" s="46">
+      <c r="L71" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="45">
+      <c r="B72" s="39">
         <v>170</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -4986,12 +4932,12 @@
       <c r="K72" s="5">
         <v>148</v>
       </c>
-      <c r="L72" s="46">
+      <c r="L72" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="45">
+      <c r="B73" s="39">
         <v>171</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -5021,12 +4967,12 @@
       <c r="K73" s="5">
         <v>148</v>
       </c>
-      <c r="L73" s="46">
+      <c r="L73" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="45">
+      <c r="B74" s="39">
         <v>172</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -5056,12 +5002,12 @@
       <c r="K74" s="5">
         <v>148</v>
       </c>
-      <c r="L74" s="46">
+      <c r="L74" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="45">
+      <c r="B75" s="39">
         <v>173</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -5091,12 +5037,12 @@
       <c r="K75" s="5">
         <v>148</v>
       </c>
-      <c r="L75" s="46">
+      <c r="L75" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="45">
+      <c r="B76" s="39">
         <v>174</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -5126,12 +5072,12 @@
       <c r="K76" s="5">
         <v>149</v>
       </c>
-      <c r="L76" s="46">
+      <c r="L76" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="45">
+      <c r="B77" s="39">
         <v>175</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -5161,12 +5107,12 @@
       <c r="K77" s="5">
         <v>149</v>
       </c>
-      <c r="L77" s="46">
+      <c r="L77" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="45">
+      <c r="B78" s="39">
         <v>176</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -5196,12 +5142,12 @@
       <c r="K78" s="5">
         <v>149</v>
       </c>
-      <c r="L78" s="46">
+      <c r="L78" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="45">
+      <c r="B79" s="39">
         <v>177</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -5231,12 +5177,12 @@
       <c r="K79" s="5">
         <v>149</v>
       </c>
-      <c r="L79" s="46">
+      <c r="L79" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="45">
+      <c r="B80" s="39">
         <v>178</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -5266,12 +5212,12 @@
       <c r="K80" s="5">
         <v>149</v>
       </c>
-      <c r="L80" s="46" t="s">
+      <c r="L80" s="40" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="45">
+      <c r="B81" s="39">
         <v>179</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -5301,12 +5247,12 @@
       <c r="K81" s="5">
         <v>149</v>
       </c>
-      <c r="L81" s="46">
+      <c r="L81" s="40">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="45">
+      <c r="B82" s="39">
         <v>180</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -5336,12 +5282,12 @@
       <c r="K82" s="5">
         <v>120</v>
       </c>
-      <c r="L82" s="46">
+      <c r="L82" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="45">
+      <c r="B83" s="39">
         <v>181</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -5371,12 +5317,12 @@
       <c r="K83" s="5">
         <v>120</v>
       </c>
-      <c r="L83" s="46">
+      <c r="L83" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="45">
+      <c r="B84" s="39">
         <v>182</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -5406,12 +5352,12 @@
       <c r="K84" s="5">
         <v>120</v>
       </c>
-      <c r="L84" s="46">
+      <c r="L84" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="45">
+      <c r="B85" s="39">
         <v>183</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -5441,12 +5387,12 @@
       <c r="K85" s="5">
         <v>120</v>
       </c>
-      <c r="L85" s="46">
+      <c r="L85" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="45">
+      <c r="B86" s="39">
         <v>184</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -5476,12 +5422,12 @@
       <c r="K86" s="5">
         <v>121</v>
       </c>
-      <c r="L86" s="46">
+      <c r="L86" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="45">
+      <c r="B87" s="39">
         <v>185</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -5511,12 +5457,12 @@
       <c r="K87" s="5">
         <v>121</v>
       </c>
-      <c r="L87" s="46">
+      <c r="L87" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="45">
+      <c r="B88" s="39">
         <v>186</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -5546,12 +5492,12 @@
       <c r="K88" s="5">
         <v>121</v>
       </c>
-      <c r="L88" s="46">
+      <c r="L88" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="45">
+      <c r="B89" s="39">
         <v>187</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -5581,12 +5527,12 @@
       <c r="K89" s="5">
         <v>121</v>
       </c>
-      <c r="L89" s="46">
+      <c r="L89" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="45">
+      <c r="B90" s="39">
         <v>188</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -5616,12 +5562,12 @@
       <c r="K90" s="5">
         <v>122</v>
       </c>
-      <c r="L90" s="46">
+      <c r="L90" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="45">
+      <c r="B91" s="39">
         <v>189</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -5651,12 +5597,12 @@
       <c r="K91" s="5">
         <v>122</v>
       </c>
-      <c r="L91" s="46">
+      <c r="L91" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="45">
+      <c r="B92" s="39">
         <v>190</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -5686,12 +5632,12 @@
       <c r="K92" s="5">
         <v>122</v>
       </c>
-      <c r="L92" s="46">
+      <c r="L92" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="45">
+      <c r="B93" s="39">
         <v>191</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -5721,12 +5667,12 @@
       <c r="K93" s="5">
         <v>122</v>
       </c>
-      <c r="L93" s="46">
+      <c r="L93" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="45">
+      <c r="B94" s="39">
         <v>192</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -5756,12 +5702,12 @@
       <c r="K94" s="5">
         <v>123</v>
       </c>
-      <c r="L94" s="46">
+      <c r="L94" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="45">
+      <c r="B95" s="39">
         <v>193</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -5791,12 +5737,12 @@
       <c r="K95" s="5">
         <v>123</v>
       </c>
-      <c r="L95" s="46">
+      <c r="L95" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="45">
+      <c r="B96" s="39">
         <v>194</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -5826,12 +5772,12 @@
       <c r="K96" s="5">
         <v>123</v>
       </c>
-      <c r="L96" s="46">
+      <c r="L96" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="45">
+      <c r="B97" s="39">
         <v>195</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -5861,12 +5807,12 @@
       <c r="K97" s="5">
         <v>123</v>
       </c>
-      <c r="L97" s="46">
+      <c r="L97" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="45">
+      <c r="B98" s="39">
         <v>196</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -5896,12 +5842,12 @@
       <c r="K98" s="5">
         <v>124</v>
       </c>
-      <c r="L98" s="46">
+      <c r="L98" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="45">
+      <c r="B99" s="39">
         <v>197</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -5931,12 +5877,12 @@
       <c r="K99" s="5">
         <v>124</v>
       </c>
-      <c r="L99" s="46">
+      <c r="L99" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="45">
+      <c r="B100" s="39">
         <v>198</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -5966,12 +5912,12 @@
       <c r="K100" s="5">
         <v>124</v>
       </c>
-      <c r="L100" s="46">
+      <c r="L100" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="45">
+      <c r="B101" s="39">
         <v>199</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -6001,12 +5947,12 @@
       <c r="K101" s="5">
         <v>124</v>
       </c>
-      <c r="L101" s="46">
+      <c r="L101" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="45">
+      <c r="B102" s="39">
         <v>200</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -6036,12 +5982,12 @@
       <c r="K102" s="5">
         <v>101</v>
       </c>
-      <c r="L102" s="46">
+      <c r="L102" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="45">
+      <c r="B103" s="39">
         <v>201</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -6071,12 +6017,12 @@
       <c r="K103" s="5">
         <v>100</v>
       </c>
-      <c r="L103" s="46">
+      <c r="L103" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="45">
+      <c r="B104" s="39">
         <v>202</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -6106,12 +6052,12 @@
       <c r="K104" s="5">
         <v>201</v>
       </c>
-      <c r="L104" s="46">
+      <c r="L104" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="45">
+      <c r="B105" s="39">
         <v>203</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -6141,12 +6087,12 @@
       <c r="K105" s="5">
         <v>101</v>
       </c>
-      <c r="L105" s="46">
+      <c r="L105" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="45">
+      <c r="B106" s="39">
         <v>204</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -6176,12 +6122,12 @@
       <c r="K106" s="5">
         <v>101</v>
       </c>
-      <c r="L106" s="46">
+      <c r="L106" s="40">
         <v>70</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="45">
+      <c r="B107" s="39">
         <v>205</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -6211,42 +6157,42 @@
       <c r="K107" s="5">
         <v>101</v>
       </c>
-      <c r="L107" s="46">
+      <c r="L107" s="40">
         <v>110</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="47">
+      <c r="B108" s="41">
         <v>206</v>
       </c>
-      <c r="C108" s="48" t="s">
+      <c r="C108" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="D108" s="48" t="s">
+      <c r="D108" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="E108" s="48" t="s">
+      <c r="E108" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="F108" s="48" t="s">
+      <c r="F108" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="G108" s="49">
+      <c r="G108" s="43">
         <v>34492</v>
       </c>
-      <c r="H108" s="48" t="s">
+      <c r="H108" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="I108" s="50">
+      <c r="I108" s="44">
         <v>8300</v>
       </c>
-      <c r="J108" s="51" t="s">
-        <v>437</v>
-      </c>
-      <c r="K108" s="50">
+      <c r="J108" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="K108" s="44">
         <v>205</v>
       </c>
-      <c r="L108" s="52">
+      <c r="L108" s="46">
         <v>110</v>
       </c>
     </row>
@@ -6259,92 +6205,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="9"/>
+    <col min="2" max="2" width="14.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="47" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>24000</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="27">
         <v>12000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>17000</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="27">
         <v>11000</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>17000</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="27">
         <v>14000</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>9000</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="27">
         <v>13500</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>6000</v>
       </c>
       <c r="F6" s="11"/>
@@ -6353,21 +6300,21 @@
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="27">
         <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>4800</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>438</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -6376,22 +6323,22 @@
       <c r="H7" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="M7" s="27" t="s">
+      <c r="I7" s="20"/>
+      <c r="M7" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="27">
         <v>11000</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>4800</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -6400,78 +6347,78 @@
       <c r="H8" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="M8" s="27" t="s">
+      <c r="I8" s="20"/>
+      <c r="M8" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <v>10500</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="27">
         <v>4200</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>3</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="M9" s="27" t="s">
+      <c r="I9" s="18"/>
+      <c r="M9" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="50">
         <v>12000</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="30"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="27">
         <v>9000</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <v>10500</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>8200</v>
       </c>
       <c r="D12" s="7"/>
@@ -6481,852 +6428,852 @@
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="M12" s="27" t="s">
+      <c r="M12" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="27">
         <v>11500</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>7700</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="M13" s="27" t="s">
+      <c r="I13" s="18"/>
+      <c r="M13" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>7800</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="27">
         <v>11000</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="27">
         <v>6900</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="27">
         <v>13000</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="50">
         <v>11000</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38" t="s">
+      <c r="D16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="M16" s="27" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="M16" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="27">
         <v>3100</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="29">
         <v>12000</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>2900</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>2800</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>2600</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>8000</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="27">
         <v>8200</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>7900</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>6500</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>5800</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>3200</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
         <v>2700</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <v>2400</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <v>2200</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <v>3300</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>2800</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <v>2100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="27">
         <v>3300</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="27">
         <v>2900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="27">
         <v>2400</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="27">
         <v>2200</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="27">
         <v>3600</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="27">
         <v>3200</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="27">
         <v>2700</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="27">
         <v>3500</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="27">
         <v>3100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="27">
         <v>2600</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36" t="s">
+      <c r="A47" s="30"/>
+      <c r="B47" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="50">
         <v>14000</v>
       </c>
-      <c r="D47" s="36"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36" t="s">
+      <c r="A48" s="30"/>
+      <c r="B48" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="50">
         <v>13500</v>
       </c>
-      <c r="D48" s="36"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="50">
         <v>12000</v>
       </c>
-      <c r="D49" s="36"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36" t="s">
+      <c r="A50" s="30"/>
+      <c r="B50" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="50">
         <v>11000</v>
       </c>
-      <c r="D50" s="36"/>
+      <c r="D50" s="30"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36" t="s">
+      <c r="A51" s="30"/>
+      <c r="B51" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="50">
         <v>10500</v>
       </c>
-      <c r="D51" s="36"/>
+      <c r="D51" s="30"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="50">
         <v>10000</v>
       </c>
-      <c r="D52" s="36"/>
+      <c r="D52" s="30"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="27">
         <v>9500</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="27">
         <v>9000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="27">
         <v>8000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="27">
         <v>7500</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="27">
         <v>7000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="50">
         <v>10000</v>
       </c>
-      <c r="D58" s="36"/>
+      <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="27">
         <v>9500</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="27">
         <v>9000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="27">
         <v>8000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="27">
         <v>7500</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="27">
         <v>7000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="50">
         <v>10500</v>
       </c>
-      <c r="D64" s="36"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="27">
         <v>9500</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="27">
         <v>7200</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="27">
         <v>6800</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68" s="27">
         <v>6400</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="27">
         <v>6200</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36" t="s">
+      <c r="A70" s="30"/>
+      <c r="B70" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="C70" s="36">
+      <c r="C70" s="50">
         <v>11500</v>
       </c>
-      <c r="D70" s="36"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36" t="s">
+      <c r="A71" s="30"/>
+      <c r="B71" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="C71" s="36">
+      <c r="C71" s="50">
         <v>10000</v>
       </c>
-      <c r="D71" s="36"/>
+      <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="27">
         <v>9600</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C73" s="27">
         <v>7400</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C74" s="28">
+      <c r="C74" s="27">
         <v>7300</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C75" s="33">
+      <c r="C75" s="27">
         <v>6100</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="C76" s="36">
+      <c r="C76" s="50">
         <v>11000</v>
       </c>
-      <c r="D76" s="36"/>
+      <c r="D76" s="30"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="27">
         <v>8800</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C78" s="27">
         <v>8600</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C79" s="27">
         <v>8400</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="C80" s="28">
+      <c r="C80" s="27">
         <v>7000</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C81" s="27">
         <v>6200</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C82" s="28">
+      <c r="C82" s="27">
         <v>3200</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="27">
         <v>3100</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="C84" s="28">
+      <c r="C84" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C85" s="27">
         <v>2800</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="C86" s="28">
+      <c r="C86" s="27">
         <v>4200</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C87" s="27">
         <v>4100</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="28">
+      <c r="C88" s="27">
         <v>3400</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="C89" s="28">
+      <c r="C89" s="27">
         <v>3000</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="C90" s="28">
+      <c r="C90" s="27">
         <v>3800</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C91" s="27">
         <v>3600</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C92" s="27">
         <v>2900</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C93" s="27">
         <v>2500</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="C94" s="28">
+      <c r="C94" s="27">
         <v>4000</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C95" s="27">
         <v>3900</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="27">
         <v>3200</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="27">
         <v>2800</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="27">
         <v>3100</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C99" s="27">
         <v>3000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="C100" s="28">
+      <c r="C100" s="27">
         <v>2600</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="C101" s="28">
+      <c r="C101" s="27">
         <v>2600</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="C102" s="33">
+      <c r="C102" s="27">
         <v>4400</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36" t="s">
+      <c r="A103" s="30"/>
+      <c r="B103" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C103" s="50">
         <v>13000</v>
       </c>
-      <c r="D103" s="36"/>
+      <c r="D103" s="30"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="34" t="s">
+      <c r="B104" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="C104" s="35">
+      <c r="C104" s="27">
         <v>6000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="C105" s="33">
+      <c r="C105" s="27">
         <v>6500</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="36" t="s">
+      <c r="A106" s="30"/>
+      <c r="B106" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="C106" s="36">
+      <c r="C106" s="50">
         <v>10000</v>
       </c>
-      <c r="D106" s="36"/>
+      <c r="D106" s="30"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36" t="s">
+      <c r="A107" s="30"/>
+      <c r="B107" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="C107" s="36">
+      <c r="C107" s="50">
         <v>12000</v>
       </c>
-      <c r="D107" s="36"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="34" t="s">
+      <c r="D107" s="30"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="C108" s="35">
+      <c r="C108" s="29">
         <v>8300</v>
       </c>
     </row>

--- a/Algebra relacional.xlsx
+++ b/Algebra relacional.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SXRDNX\Documents\TareasJaime\Manejador1\basededatospython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G-Ada\Documents\BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82A4DD0-F773-4F4A-8F47-5A8007CF6AA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
-    <sheet name="employees" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1551,7 +1550,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1675,7 +1674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1887,6 +1886,58 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1957,7 +2008,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1983,6 +2034,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2000,20 +2052,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2028,30 +2087,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="20% - Énfasis4" xfId="2" builtinId="42"/>
+    <cellStyle name="60% - Énfasis5" xfId="3" builtinId="48"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2084,13 +2137,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flecha derecha 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Flecha derecha 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2394,14 +2441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
@@ -2417,42 +2464,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="40" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="42" t="s">
         <v>433</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="44" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="39">
+      <c r="B2" s="45">
         <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2482,12 +2529,12 @@
       <c r="K2" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="46">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="39">
+      <c r="B3" s="45">
         <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2517,12 +2564,12 @@
       <c r="K3" s="5">
         <v>100</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="46">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="39">
+      <c r="B4" s="45">
         <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2552,12 +2599,12 @@
       <c r="K4" s="5">
         <v>100</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="46">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="39">
+      <c r="B5" s="45">
         <v>103</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2587,12 +2634,12 @@
       <c r="K5" s="5">
         <v>102</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="46">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="39">
+      <c r="B6" s="45">
         <v>104</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2622,12 +2669,12 @@
       <c r="K6" s="5">
         <v>103</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="46">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="39">
+      <c r="B7" s="45">
         <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2657,12 +2704,12 @@
       <c r="K7" s="5">
         <v>103</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="46">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="39">
+      <c r="B8" s="45">
         <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2692,12 +2739,12 @@
       <c r="K8" s="5">
         <v>103</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="46">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="39">
+      <c r="B9" s="45">
         <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2727,12 +2774,12 @@
       <c r="K9" s="5">
         <v>103</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="46">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="39">
+      <c r="B10" s="45">
         <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2762,12 +2809,12 @@
       <c r="K10" s="5">
         <v>101</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="39">
+      <c r="B11" s="45">
         <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2797,12 +2844,12 @@
       <c r="K11" s="5">
         <v>108</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="39">
+      <c r="B12" s="45">
         <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2832,12 +2879,12 @@
       <c r="K12" s="5">
         <v>108</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="39">
+      <c r="B13" s="45">
         <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2867,12 +2914,12 @@
       <c r="K13" s="5">
         <v>108</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="39">
+      <c r="B14" s="45">
         <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2902,12 +2949,12 @@
       <c r="K14" s="5">
         <v>108</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="39">
+      <c r="B15" s="45">
         <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2937,12 +2984,12 @@
       <c r="K15" s="5">
         <v>108</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="46">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="39">
+      <c r="B16" s="45">
         <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2972,12 +3019,12 @@
       <c r="K16" s="5">
         <v>100</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="39">
+      <c r="B17" s="45">
         <v>115</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3007,12 +3054,12 @@
       <c r="K17" s="5">
         <v>114</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="39">
+      <c r="B18" s="45">
         <v>116</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3042,12 +3089,12 @@
       <c r="K18" s="5">
         <v>114</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="39">
+      <c r="B19" s="45">
         <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3077,12 +3124,12 @@
       <c r="K19" s="5">
         <v>114</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="39">
+      <c r="B20" s="45">
         <v>118</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3112,12 +3159,12 @@
       <c r="K20" s="5">
         <v>114</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="39">
+      <c r="B21" s="45">
         <v>119</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3147,12 +3194,12 @@
       <c r="K21" s="5">
         <v>114</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="46">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="39">
+      <c r="B22" s="45">
         <v>120</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3182,12 +3229,12 @@
       <c r="K22" s="5">
         <v>100</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="39">
+      <c r="B23" s="45">
         <v>121</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3217,12 +3264,12 @@
       <c r="K23" s="5">
         <v>100</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="39">
+      <c r="B24" s="45">
         <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -3252,12 +3299,12 @@
       <c r="K24" s="5">
         <v>100</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="39">
+      <c r="B25" s="45">
         <v>123</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3287,12 +3334,12 @@
       <c r="K25" s="5">
         <v>100</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="39">
+      <c r="B26" s="45">
         <v>124</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -3322,12 +3369,12 @@
       <c r="K26" s="5">
         <v>100</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="39">
+      <c r="B27" s="45">
         <v>125</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3357,12 +3404,12 @@
       <c r="K27" s="5">
         <v>120</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="39">
+      <c r="B28" s="45">
         <v>126</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3392,12 +3439,12 @@
       <c r="K28" s="5">
         <v>120</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="39">
+      <c r="B29" s="45">
         <v>127</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3427,12 +3474,12 @@
       <c r="K29" s="5">
         <v>120</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="39">
+      <c r="B30" s="45">
         <v>128</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3462,12 +3509,12 @@
       <c r="K30" s="5">
         <v>120</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="39">
+      <c r="B31" s="45">
         <v>129</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3497,12 +3544,12 @@
       <c r="K31" s="5">
         <v>121</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="39">
+      <c r="B32" s="45">
         <v>130</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3532,12 +3579,12 @@
       <c r="K32" s="5">
         <v>121</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="39">
+      <c r="B33" s="45">
         <v>131</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3567,12 +3614,12 @@
       <c r="K33" s="5">
         <v>121</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="39">
+      <c r="B34" s="45">
         <v>132</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -3602,12 +3649,12 @@
       <c r="K34" s="5">
         <v>121</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="39">
+      <c r="B35" s="45">
         <v>133</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3637,12 +3684,12 @@
       <c r="K35" s="5">
         <v>122</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="39">
+      <c r="B36" s="45">
         <v>134</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3672,12 +3719,12 @@
       <c r="K36" s="5">
         <v>122</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="39">
+      <c r="B37" s="45">
         <v>135</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -3707,12 +3754,12 @@
       <c r="K37" s="5">
         <v>122</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="39">
+      <c r="B38" s="45">
         <v>136</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -3742,12 +3789,12 @@
       <c r="K38" s="5">
         <v>122</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="39">
+      <c r="B39" s="45">
         <v>137</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -3777,12 +3824,12 @@
       <c r="K39" s="5">
         <v>123</v>
       </c>
-      <c r="L39" s="40">
+      <c r="L39" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="39">
+      <c r="B40" s="45">
         <v>138</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3812,12 +3859,12 @@
       <c r="K40" s="5">
         <v>123</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="39">
+      <c r="B41" s="45">
         <v>139</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -3847,12 +3894,12 @@
       <c r="K41" s="5">
         <v>123</v>
       </c>
-      <c r="L41" s="40">
+      <c r="L41" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="39">
+      <c r="B42" s="45">
         <v>140</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -3882,12 +3929,12 @@
       <c r="K42" s="5">
         <v>123</v>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="39">
+      <c r="B43" s="45">
         <v>141</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3917,12 +3964,12 @@
       <c r="K43" s="5">
         <v>124</v>
       </c>
-      <c r="L43" s="40">
+      <c r="L43" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="39">
+      <c r="B44" s="45">
         <v>142</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -3952,12 +3999,12 @@
       <c r="K44" s="5">
         <v>124</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="39">
+      <c r="B45" s="45">
         <v>143</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -3987,12 +4034,12 @@
       <c r="K45" s="5">
         <v>124</v>
       </c>
-      <c r="L45" s="40">
+      <c r="L45" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="39">
+      <c r="B46" s="45">
         <v>144</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -4022,12 +4069,12 @@
       <c r="K46" s="5">
         <v>124</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="39">
+      <c r="B47" s="45">
         <v>145</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -4057,12 +4104,12 @@
       <c r="K47" s="5">
         <v>100</v>
       </c>
-      <c r="L47" s="40">
+      <c r="L47" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="39">
+      <c r="B48" s="45">
         <v>146</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -4092,12 +4139,12 @@
       <c r="K48" s="5">
         <v>100</v>
       </c>
-      <c r="L48" s="40">
+      <c r="L48" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="39">
+      <c r="B49" s="45">
         <v>147</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -4127,12 +4174,12 @@
       <c r="K49" s="5">
         <v>100</v>
       </c>
-      <c r="L49" s="40">
+      <c r="L49" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="39">
+      <c r="B50" s="45">
         <v>148</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -4162,12 +4209,12 @@
       <c r="K50" s="5">
         <v>100</v>
       </c>
-      <c r="L50" s="40">
+      <c r="L50" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="39">
+      <c r="B51" s="45">
         <v>149</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -4197,12 +4244,12 @@
       <c r="K51" s="5">
         <v>100</v>
       </c>
-      <c r="L51" s="40">
+      <c r="L51" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="39">
+      <c r="B52" s="45">
         <v>150</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -4232,12 +4279,12 @@
       <c r="K52" s="5">
         <v>145</v>
       </c>
-      <c r="L52" s="40">
+      <c r="L52" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="39">
+      <c r="B53" s="45">
         <v>151</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -4267,12 +4314,12 @@
       <c r="K53" s="5">
         <v>145</v>
       </c>
-      <c r="L53" s="40">
+      <c r="L53" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="39">
+      <c r="B54" s="45">
         <v>152</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -4302,12 +4349,12 @@
       <c r="K54" s="5">
         <v>145</v>
       </c>
-      <c r="L54" s="40">
+      <c r="L54" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="39">
+      <c r="B55" s="45">
         <v>153</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -4337,12 +4384,12 @@
       <c r="K55" s="5">
         <v>145</v>
       </c>
-      <c r="L55" s="40">
+      <c r="L55" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="39">
+      <c r="B56" s="45">
         <v>154</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -4372,12 +4419,12 @@
       <c r="K56" s="5">
         <v>145</v>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="39">
+      <c r="B57" s="45">
         <v>155</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -4407,12 +4454,12 @@
       <c r="K57" s="5">
         <v>145</v>
       </c>
-      <c r="L57" s="40">
+      <c r="L57" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="39">
+      <c r="B58" s="45">
         <v>156</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -4442,12 +4489,12 @@
       <c r="K58" s="5">
         <v>146</v>
       </c>
-      <c r="L58" s="40">
+      <c r="L58" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="39">
+      <c r="B59" s="45">
         <v>157</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -4477,12 +4524,12 @@
       <c r="K59" s="5">
         <v>146</v>
       </c>
-      <c r="L59" s="40">
+      <c r="L59" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="39">
+      <c r="B60" s="45">
         <v>158</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -4512,12 +4559,12 @@
       <c r="K60" s="5">
         <v>146</v>
       </c>
-      <c r="L60" s="40">
+      <c r="L60" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="39">
+      <c r="B61" s="45">
         <v>159</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -4547,12 +4594,12 @@
       <c r="K61" s="5">
         <v>146</v>
       </c>
-      <c r="L61" s="40">
+      <c r="L61" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="39">
+      <c r="B62" s="45">
         <v>160</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -4582,12 +4629,12 @@
       <c r="K62" s="5">
         <v>146</v>
       </c>
-      <c r="L62" s="40">
+      <c r="L62" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="39">
+      <c r="B63" s="45">
         <v>161</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -4617,12 +4664,12 @@
       <c r="K63" s="5">
         <v>146</v>
       </c>
-      <c r="L63" s="40">
+      <c r="L63" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="39">
+      <c r="B64" s="45">
         <v>162</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -4652,12 +4699,12 @@
       <c r="K64" s="5">
         <v>147</v>
       </c>
-      <c r="L64" s="40">
+      <c r="L64" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="39">
+      <c r="B65" s="45">
         <v>163</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -4687,12 +4734,12 @@
       <c r="K65" s="5">
         <v>147</v>
       </c>
-      <c r="L65" s="40">
+      <c r="L65" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="39">
+      <c r="B66" s="45">
         <v>164</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -4722,12 +4769,12 @@
       <c r="K66" s="5">
         <v>147</v>
       </c>
-      <c r="L66" s="40">
+      <c r="L66" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="39">
+      <c r="B67" s="45">
         <v>165</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -4757,12 +4804,12 @@
       <c r="K67" s="5">
         <v>147</v>
       </c>
-      <c r="L67" s="40">
+      <c r="L67" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="39">
+      <c r="B68" s="45">
         <v>166</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -4792,12 +4839,12 @@
       <c r="K68" s="5">
         <v>147</v>
       </c>
-      <c r="L68" s="40">
+      <c r="L68" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="39">
+      <c r="B69" s="45">
         <v>167</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -4827,12 +4874,12 @@
       <c r="K69" s="5">
         <v>147</v>
       </c>
-      <c r="L69" s="40">
+      <c r="L69" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="39">
+      <c r="B70" s="45">
         <v>168</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -4862,12 +4909,12 @@
       <c r="K70" s="5">
         <v>148</v>
       </c>
-      <c r="L70" s="40">
+      <c r="L70" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="39">
+      <c r="B71" s="45">
         <v>169</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -4897,12 +4944,12 @@
       <c r="K71" s="5">
         <v>148</v>
       </c>
-      <c r="L71" s="40">
+      <c r="L71" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="39">
+      <c r="B72" s="45">
         <v>170</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -4932,12 +4979,12 @@
       <c r="K72" s="5">
         <v>148</v>
       </c>
-      <c r="L72" s="40">
+      <c r="L72" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="39">
+      <c r="B73" s="45">
         <v>171</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -4967,12 +5014,12 @@
       <c r="K73" s="5">
         <v>148</v>
       </c>
-      <c r="L73" s="40">
+      <c r="L73" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="39">
+      <c r="B74" s="45">
         <v>172</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -5002,12 +5049,12 @@
       <c r="K74" s="5">
         <v>148</v>
       </c>
-      <c r="L74" s="40">
+      <c r="L74" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="39">
+      <c r="B75" s="45">
         <v>173</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -5037,12 +5084,12 @@
       <c r="K75" s="5">
         <v>148</v>
       </c>
-      <c r="L75" s="40">
+      <c r="L75" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="39">
+      <c r="B76" s="45">
         <v>174</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -5072,12 +5119,12 @@
       <c r="K76" s="5">
         <v>149</v>
       </c>
-      <c r="L76" s="40">
+      <c r="L76" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="39">
+      <c r="B77" s="45">
         <v>175</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -5107,12 +5154,12 @@
       <c r="K77" s="5">
         <v>149</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="39">
+      <c r="B78" s="45">
         <v>176</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -5142,12 +5189,12 @@
       <c r="K78" s="5">
         <v>149</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="39">
+      <c r="B79" s="45">
         <v>177</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -5177,12 +5224,12 @@
       <c r="K79" s="5">
         <v>149</v>
       </c>
-      <c r="L79" s="40">
+      <c r="L79" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="39">
+      <c r="B80" s="45">
         <v>178</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -5212,12 +5259,12 @@
       <c r="K80" s="5">
         <v>149</v>
       </c>
-      <c r="L80" s="40" t="s">
+      <c r="L80" s="46" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="39">
+      <c r="B81" s="45">
         <v>179</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -5247,12 +5294,12 @@
       <c r="K81" s="5">
         <v>149</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="46">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="39">
+      <c r="B82" s="45">
         <v>180</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -5282,12 +5329,12 @@
       <c r="K82" s="5">
         <v>120</v>
       </c>
-      <c r="L82" s="40">
+      <c r="L82" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="39">
+      <c r="B83" s="45">
         <v>181</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -5317,12 +5364,12 @@
       <c r="K83" s="5">
         <v>120</v>
       </c>
-      <c r="L83" s="40">
+      <c r="L83" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="39">
+      <c r="B84" s="45">
         <v>182</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -5352,12 +5399,12 @@
       <c r="K84" s="5">
         <v>120</v>
       </c>
-      <c r="L84" s="40">
+      <c r="L84" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="39">
+      <c r="B85" s="45">
         <v>183</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -5387,12 +5434,12 @@
       <c r="K85" s="5">
         <v>120</v>
       </c>
-      <c r="L85" s="40">
+      <c r="L85" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="39">
+      <c r="B86" s="45">
         <v>184</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -5422,12 +5469,12 @@
       <c r="K86" s="5">
         <v>121</v>
       </c>
-      <c r="L86" s="40">
+      <c r="L86" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="39">
+      <c r="B87" s="45">
         <v>185</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -5457,12 +5504,12 @@
       <c r="K87" s="5">
         <v>121</v>
       </c>
-      <c r="L87" s="40">
+      <c r="L87" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="39">
+      <c r="B88" s="45">
         <v>186</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -5492,12 +5539,12 @@
       <c r="K88" s="5">
         <v>121</v>
       </c>
-      <c r="L88" s="40">
+      <c r="L88" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="39">
+      <c r="B89" s="45">
         <v>187</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -5527,12 +5574,12 @@
       <c r="K89" s="5">
         <v>121</v>
       </c>
-      <c r="L89" s="40">
+      <c r="L89" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="39">
+      <c r="B90" s="45">
         <v>188</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -5562,12 +5609,12 @@
       <c r="K90" s="5">
         <v>122</v>
       </c>
-      <c r="L90" s="40">
+      <c r="L90" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="39">
+      <c r="B91" s="45">
         <v>189</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -5597,12 +5644,12 @@
       <c r="K91" s="5">
         <v>122</v>
       </c>
-      <c r="L91" s="40">
+      <c r="L91" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="39">
+      <c r="B92" s="45">
         <v>190</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -5632,12 +5679,12 @@
       <c r="K92" s="5">
         <v>122</v>
       </c>
-      <c r="L92" s="40">
+      <c r="L92" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="39">
+      <c r="B93" s="45">
         <v>191</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -5667,12 +5714,12 @@
       <c r="K93" s="5">
         <v>122</v>
       </c>
-      <c r="L93" s="40">
+      <c r="L93" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="39">
+      <c r="B94" s="45">
         <v>192</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -5702,12 +5749,12 @@
       <c r="K94" s="5">
         <v>123</v>
       </c>
-      <c r="L94" s="40">
+      <c r="L94" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="39">
+      <c r="B95" s="45">
         <v>193</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -5737,12 +5784,12 @@
       <c r="K95" s="5">
         <v>123</v>
       </c>
-      <c r="L95" s="40">
+      <c r="L95" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="39">
+      <c r="B96" s="45">
         <v>194</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -5772,12 +5819,12 @@
       <c r="K96" s="5">
         <v>123</v>
       </c>
-      <c r="L96" s="40">
+      <c r="L96" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="39">
+      <c r="B97" s="45">
         <v>195</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -5807,12 +5854,12 @@
       <c r="K97" s="5">
         <v>123</v>
       </c>
-      <c r="L97" s="40">
+      <c r="L97" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="39">
+      <c r="B98" s="45">
         <v>196</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -5842,12 +5889,12 @@
       <c r="K98" s="5">
         <v>124</v>
       </c>
-      <c r="L98" s="40">
+      <c r="L98" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="39">
+      <c r="B99" s="45">
         <v>197</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -5877,12 +5924,12 @@
       <c r="K99" s="5">
         <v>124</v>
       </c>
-      <c r="L99" s="40">
+      <c r="L99" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="39">
+      <c r="B100" s="45">
         <v>198</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -5912,12 +5959,12 @@
       <c r="K100" s="5">
         <v>124</v>
       </c>
-      <c r="L100" s="40">
+      <c r="L100" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="39">
+      <c r="B101" s="45">
         <v>199</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -5947,12 +5994,12 @@
       <c r="K101" s="5">
         <v>124</v>
       </c>
-      <c r="L101" s="40">
+      <c r="L101" s="46">
         <v>50</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="39">
+      <c r="B102" s="45">
         <v>200</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -5982,12 +6029,12 @@
       <c r="K102" s="5">
         <v>101</v>
       </c>
-      <c r="L102" s="40">
+      <c r="L102" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="39">
+      <c r="B103" s="45">
         <v>201</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -6017,12 +6064,12 @@
       <c r="K103" s="5">
         <v>100</v>
       </c>
-      <c r="L103" s="40">
+      <c r="L103" s="46">
         <v>20</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="39">
+      <c r="B104" s="45">
         <v>202</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -6052,12 +6099,12 @@
       <c r="K104" s="5">
         <v>201</v>
       </c>
-      <c r="L104" s="40">
+      <c r="L104" s="46">
         <v>20</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="39">
+      <c r="B105" s="45">
         <v>203</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -6087,12 +6134,12 @@
       <c r="K105" s="5">
         <v>101</v>
       </c>
-      <c r="L105" s="40">
+      <c r="L105" s="46">
         <v>40</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="39">
+      <c r="B106" s="45">
         <v>204</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -6122,12 +6169,12 @@
       <c r="K106" s="5">
         <v>101</v>
       </c>
-      <c r="L106" s="40">
+      <c r="L106" s="46">
         <v>70</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="39">
+      <c r="B107" s="45">
         <v>205</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -6157,42 +6204,42 @@
       <c r="K107" s="5">
         <v>101</v>
       </c>
-      <c r="L107" s="40">
+      <c r="L107" s="46">
         <v>110</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="41">
+      <c r="B108" s="47">
         <v>206</v>
       </c>
-      <c r="C108" s="42" t="s">
+      <c r="C108" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="D108" s="42" t="s">
+      <c r="D108" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="E108" s="42" t="s">
+      <c r="E108" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="F108" s="42" t="s">
+      <c r="F108" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="G108" s="43">
+      <c r="G108" s="49">
         <v>34492</v>
       </c>
-      <c r="H108" s="42" t="s">
+      <c r="H108" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="I108" s="44">
+      <c r="I108" s="50">
         <v>8300</v>
       </c>
-      <c r="J108" s="45" t="s">
+      <c r="J108" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="K108" s="44">
+      <c r="K108" s="50">
         <v>205</v>
       </c>
-      <c r="L108" s="46">
+      <c r="L108" s="52">
         <v>110</v>
       </c>
     </row>
@@ -6202,96 +6249,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="9"/>
-    <col min="2" max="2" width="14.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="29" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="26" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="28">
         <v>24000</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="28">
         <v>12000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="28">
         <v>17000</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="28">
         <v>11000</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="28">
         <v>17000</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="28">
         <v>14000</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="28">
         <v>9000</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="28">
         <v>13500</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="28">
         <v>6000</v>
       </c>
       <c r="F6" s="11"/>
@@ -6300,21 +6346,21 @@
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="28">
         <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="28">
         <v>4800</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>438</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -6323,22 +6369,22 @@
       <c r="H7" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="M7" s="26" t="s">
+      <c r="I7" s="21"/>
+      <c r="M7" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="28">
         <v>11000</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="28">
         <v>4800</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="22">
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -6347,78 +6393,78 @@
       <c r="H8" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="M8" s="26" t="s">
+      <c r="I8" s="21"/>
+      <c r="M8" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="28">
         <v>10500</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="33">
         <v>4200</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>3</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="M9" s="26" t="s">
+      <c r="I9" s="19"/>
+      <c r="M9" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="28">
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="36">
         <v>12000</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="36"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="28">
         <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="35">
         <v>9000</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="28">
         <v>10500</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="28">
         <v>8200</v>
       </c>
       <c r="D12" s="7"/>
@@ -6428,852 +6474,852 @@
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="28">
         <v>11500</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="28">
         <v>7700</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="M13" s="26" t="s">
+      <c r="I13" s="19"/>
+      <c r="M13" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="28">
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="28">
         <v>7800</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="28">
         <v>11000</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="33">
         <v>6900</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="28">
         <v>13000</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="36">
         <v>11000</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32" t="s">
+      <c r="D16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="M16" s="26" t="s">
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="M16" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="28">
         <v>10000</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="35">
         <v>3100</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="31">
         <v>12000</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="28">
         <v>2900</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="28">
         <v>2800</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="28">
         <v>2600</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="28">
         <v>2500</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="28">
         <v>8000</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="28">
         <v>8200</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="28">
         <v>7900</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="28">
         <v>6500</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="28">
         <v>5800</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="28">
         <v>3200</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="28">
         <v>2700</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="28">
         <v>2400</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="28">
         <v>2200</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="28">
         <v>3300</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="28">
         <v>2800</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="28">
         <v>2500</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="28">
         <v>2100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="28">
         <v>3300</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="28">
         <v>2900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="28">
         <v>2400</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="28">
         <v>2200</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="28">
         <v>3600</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="28">
         <v>3200</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="28">
         <v>2700</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="28">
         <v>2500</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="28">
         <v>3500</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="28">
         <v>3100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="28">
         <v>2600</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="33">
         <v>2500</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="49" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="36">
         <v>14000</v>
       </c>
-      <c r="D47" s="30"/>
+      <c r="D47" s="36"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="49" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="36">
         <v>13500</v>
       </c>
-      <c r="D48" s="30"/>
+      <c r="D48" s="36"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="49" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C49" s="36">
         <v>12000</v>
       </c>
-      <c r="D49" s="30"/>
+      <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="49" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="36">
         <v>11000</v>
       </c>
-      <c r="D50" s="30"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="36">
         <v>10500</v>
       </c>
-      <c r="D51" s="30"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="36">
         <v>10000</v>
       </c>
-      <c r="D52" s="30"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="35">
         <v>9500</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="28">
         <v>9000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="28">
         <v>8000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="28">
         <v>7500</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="33">
         <v>7000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58" s="36">
         <v>10000</v>
       </c>
-      <c r="D58" s="30"/>
+      <c r="D58" s="36"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="35">
         <v>9500</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="28">
         <v>9000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="28">
         <v>8000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="28">
         <v>7500</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="33">
         <v>7000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="49" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="36">
         <v>10500</v>
       </c>
-      <c r="D64" s="30"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65" s="35">
         <v>9500</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="C66" s="27">
+      <c r="C66" s="28">
         <v>7200</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="27">
+      <c r="C67" s="28">
         <v>6800</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="27">
+      <c r="C68" s="28">
         <v>6400</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="33">
         <v>6200</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="49" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="36">
         <v>11500</v>
       </c>
-      <c r="D70" s="30"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="36">
         <v>10000</v>
       </c>
-      <c r="D71" s="30"/>
+      <c r="D71" s="36"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C72" s="35">
         <v>9600</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="C73" s="27">
+      <c r="C73" s="28">
         <v>7400</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C74" s="28">
         <v>7300</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="C75" s="27">
+      <c r="C75" s="33">
         <v>6100</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="49" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="C76" s="50">
+      <c r="C76" s="36">
         <v>11000</v>
       </c>
-      <c r="D76" s="30"/>
+      <c r="D76" s="36"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77" s="35">
         <v>8800</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C78" s="27">
+      <c r="C78" s="28">
         <v>8600</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C79" s="27">
+      <c r="C79" s="28">
         <v>8400</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80" s="28">
         <v>7000</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="C81" s="27">
+      <c r="C81" s="28">
         <v>6200</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C82" s="28">
         <v>3200</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="C83" s="27">
+      <c r="C83" s="28">
         <v>3100</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="C84" s="27">
+      <c r="C84" s="28">
         <v>2500</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="C85" s="27">
+      <c r="C85" s="28">
         <v>2800</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="C86" s="27">
+      <c r="C86" s="28">
         <v>4200</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="C87" s="27">
+      <c r="C87" s="28">
         <v>4100</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="27">
+      <c r="C88" s="28">
         <v>3400</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="C89" s="27">
+      <c r="C89" s="28">
         <v>3000</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90" s="28">
         <v>3800</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="C91" s="27">
+      <c r="C91" s="28">
         <v>3600</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="C92" s="27">
+      <c r="C92" s="28">
         <v>2900</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="27">
+      <c r="C93" s="28">
         <v>2500</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94" s="28">
         <v>4000</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="C95" s="27">
+      <c r="C95" s="28">
         <v>3900</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="27">
+      <c r="C96" s="28">
         <v>3200</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="C97" s="27">
+      <c r="C97" s="28">
         <v>2800</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="C98" s="27">
+      <c r="C98" s="28">
         <v>3100</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="28">
         <v>3000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="C100" s="27">
+      <c r="C100" s="28">
         <v>2600</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="C101" s="27">
+      <c r="C101" s="28">
         <v>2600</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="C102" s="27">
+      <c r="C102" s="33">
         <v>4400</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
-      <c r="B103" s="49" t="s">
+      <c r="A103" s="36"/>
+      <c r="B103" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="50">
+      <c r="C103" s="36">
         <v>13000</v>
       </c>
-      <c r="D103" s="30"/>
+      <c r="D103" s="36"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="C104" s="27">
+      <c r="C104" s="35">
         <v>6000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="C105" s="27">
+      <c r="C105" s="33">
         <v>6500</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="B106" s="49" t="s">
+      <c r="A106" s="36"/>
+      <c r="B106" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="C106" s="50">
+      <c r="C106" s="36">
         <v>10000</v>
       </c>
-      <c r="D106" s="30"/>
+      <c r="D106" s="36"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="49" t="s">
+      <c r="A107" s="36"/>
+      <c r="B107" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="C107" s="50">
+      <c r="C107" s="36">
         <v>12000</v>
       </c>
-      <c r="D107" s="30"/>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="28" t="s">
+      <c r="D107" s="36"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C108" s="29">
+      <c r="C108" s="35">
         <v>8300</v>
       </c>
     </row>
